--- a/Tablas.xlsx
+++ b/Tablas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clases\Redes\Parcial-Redes-Periodo-2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C89816-9993-4D5D-A8AE-84DEC272EF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,400 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="129">
+  <si>
+    <t>Dispositivo</t>
+  </si>
+  <si>
+    <t>Interfaz</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Ip</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>GI0/0/0</t>
+  </si>
+  <si>
+    <t>172.168.12.0</t>
+  </si>
+  <si>
+    <t>/24</t>
+  </si>
+  <si>
+    <t>SE0/1/0</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>SE0/1/1</t>
+  </si>
+  <si>
+    <t>2.2.2.1</t>
+  </si>
+  <si>
+    <t>SE0/2/0</t>
+  </si>
+  <si>
+    <t>3.3.3.1</t>
+  </si>
+  <si>
+    <t>GI0/0/1</t>
+  </si>
+  <si>
+    <t>/30</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>170.20.8.0</t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t>5.5.5.1</t>
+  </si>
+  <si>
+    <t>SE0/2/1</t>
+  </si>
+  <si>
+    <t>7.7.7.1</t>
+  </si>
+  <si>
+    <t>10.10.10.1</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>2.2.2.2</t>
+  </si>
+  <si>
+    <t>4.4.4.1</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>168.168.1.0</t>
+  </si>
+  <si>
+    <t>3.3.3.2</t>
+  </si>
+  <si>
+    <t>6.6.6.1</t>
+  </si>
+  <si>
+    <t>9.9.9.1</t>
+  </si>
+  <si>
+    <t>11.11.11.1</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>4.4.4.2</t>
+  </si>
+  <si>
+    <t>5.5.5.2</t>
+  </si>
+  <si>
+    <t>6.6.6.2</t>
+  </si>
+  <si>
+    <t>8.8.81</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>7.7.7.2</t>
+  </si>
+  <si>
+    <t>8.8.8.2</t>
+  </si>
+  <si>
+    <t>9.9.9.2</t>
+  </si>
+  <si>
+    <t>12.12.12.2</t>
+  </si>
+  <si>
+    <t>13.13.13.2</t>
+  </si>
+  <si>
+    <t>14.14.14.2</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>10.10.10.2</t>
+  </si>
+  <si>
+    <t>192.135.2.0</t>
+  </si>
+  <si>
+    <t>12.12.12.1</t>
+  </si>
+  <si>
+    <t>15.15.15.1</t>
+  </si>
+  <si>
+    <t>17.17.17.1</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>13.13.13.1</t>
+  </si>
+  <si>
+    <t>16.16.16.1</t>
+  </si>
+  <si>
+    <t>18.18.18.2</t>
+  </si>
+  <si>
+    <t>15.15.15.2</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>199.199.50.0</t>
+  </si>
+  <si>
+    <t>199.192.40.0</t>
+  </si>
+  <si>
+    <t>11.11.11.2</t>
+  </si>
+  <si>
+    <t>14.14.14.1</t>
+  </si>
+  <si>
+    <t>19.19.19.1</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>220.200.2.0</t>
+  </si>
+  <si>
+    <t>220.201.2.0</t>
+  </si>
+  <si>
+    <t>17.17.17.2</t>
+  </si>
+  <si>
+    <t>18.18.18.1</t>
+  </si>
+  <si>
+    <t>19.19.19.2</t>
+  </si>
+  <si>
+    <t>Ip del siguiente salto</t>
+  </si>
+  <si>
+    <t>Ips desconocidas</t>
+  </si>
+  <si>
+    <t>172.168.20.0</t>
+  </si>
+  <si>
+    <t>4.4.4.0</t>
+  </si>
+  <si>
+    <t>5.5.5.0</t>
+  </si>
+  <si>
+    <t>6.6.6.0</t>
+  </si>
+  <si>
+    <t>7.7.7.0</t>
+  </si>
+  <si>
+    <t>8.8.8.0</t>
+  </si>
+  <si>
+    <t>9.9.9.0</t>
+  </si>
+  <si>
+    <t>10.10.10.0</t>
+  </si>
+  <si>
+    <t>11.11.11.0</t>
+  </si>
+  <si>
+    <t>12.12.12.0</t>
+  </si>
+  <si>
+    <t>13.13.13.0</t>
+  </si>
+  <si>
+    <t>14.14.14.0</t>
+  </si>
+  <si>
+    <t>15.15.15.0</t>
+  </si>
+  <si>
+    <t>16.16.16.0</t>
+  </si>
+  <si>
+    <t>17.17.17.0</t>
+  </si>
+  <si>
+    <t>18.18.18.0</t>
+  </si>
+  <si>
+    <t>19.19.19.0</t>
+  </si>
+  <si>
+    <t>R1 A R2</t>
+  </si>
+  <si>
+    <t>R1 A R3</t>
+  </si>
+  <si>
+    <t>R1 A R4</t>
+  </si>
+  <si>
+    <t>2.2.2.0</t>
+  </si>
+  <si>
+    <t>3.3.3.0</t>
+  </si>
+  <si>
+    <t>R2 A R1</t>
+  </si>
+  <si>
+    <t>R2 A R5</t>
+  </si>
+  <si>
+    <t>R2 A R6</t>
+  </si>
+  <si>
+    <t>R2 A R7</t>
+  </si>
+  <si>
+    <t>1.1.1.0</t>
+  </si>
+  <si>
+    <t>R3 A R1</t>
+  </si>
+  <si>
+    <t>R3 A R5</t>
+  </si>
+  <si>
+    <t>8.8.8.1</t>
+  </si>
+  <si>
+    <t>R4 A R1</t>
+  </si>
+  <si>
+    <t>R4 A R5</t>
+  </si>
+  <si>
+    <t>R4 A R6</t>
+  </si>
+  <si>
+    <t>R5 A R3</t>
+  </si>
+  <si>
+    <t>R5 A R2</t>
+  </si>
+  <si>
+    <t>R5 A R6</t>
+  </si>
+  <si>
+    <t>R5 A R4</t>
+  </si>
+  <si>
+    <t>R6 A R2</t>
+  </si>
+  <si>
+    <t>R6 A R7</t>
+  </si>
+  <si>
+    <t>R6 A R8</t>
+  </si>
+  <si>
+    <t>R6 A R9</t>
+  </si>
+  <si>
+    <t>R6 A R4</t>
+  </si>
+  <si>
+    <t>R6 A R5</t>
+  </si>
+  <si>
+    <t>R7 A R2</t>
+  </si>
+  <si>
+    <t>R7 A R6</t>
+  </si>
+  <si>
+    <t>R7 A R8</t>
+  </si>
+  <si>
+    <t>R7 A R10</t>
+  </si>
+  <si>
+    <t>R8 A R6</t>
+  </si>
+  <si>
+    <t>R8 A R7</t>
+  </si>
+  <si>
+    <t>R8 A R10</t>
+  </si>
+  <si>
+    <t>R8 A R9</t>
+  </si>
+  <si>
+    <t>R9 A R4</t>
+  </si>
+  <si>
+    <t>R9 A R6</t>
+  </si>
+  <si>
+    <t>R9 A R8</t>
+  </si>
+  <si>
+    <t>16.16.16.2</t>
+  </si>
+  <si>
+    <t>R9 A R10</t>
+  </si>
+  <si>
+    <t>R10 A R7</t>
+  </si>
+  <si>
+    <t>R10 A R8</t>
+  </si>
+  <si>
+    <t>R10 A R9</t>
+  </si>
+  <si>
+    <t>xº</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +427,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -45,12 +449,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +822,2662 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:W244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:K244"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="W36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>75</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+      <c r="C42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+      <c r="C43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>79</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
+      <c r="C44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" t="s">
+        <v>81</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+      <c r="C46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+      <c r="C47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+      <c r="C48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>84</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="3"/>
+      <c r="C49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>69</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I53" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>57</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>46</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>62</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>63</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>71</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I63" t="s">
+        <v>72</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I64" t="s">
+        <v>73</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I65" t="s">
+        <v>74</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I67" t="s">
+        <v>76</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I68" t="s">
+        <v>77</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I69" t="s">
+        <v>78</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I70" t="s">
+        <v>79</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I71" t="s">
+        <v>80</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I72" t="s">
+        <v>81</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I73" t="s">
+        <v>82</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I74" t="s">
+        <v>83</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I75" t="s">
+        <v>84</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I76" t="s">
+        <v>85</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" t="s">
+        <v>69</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I79" t="s">
+        <v>6</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I80" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I81" t="s">
+        <v>56</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K81" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I82" t="s">
+        <v>57</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K82" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I83" t="s">
+        <v>46</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K83" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>62</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I85" t="s">
+        <v>63</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I86" t="s">
+        <v>95</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I87" t="s">
+        <v>89</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I88" t="s">
+        <v>70</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I89" t="s">
+        <v>71</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I90" t="s">
+        <v>73</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I91" t="s">
+        <v>74</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I92" t="s">
+        <v>76</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I93" t="s">
+        <v>77</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I94" t="s">
+        <v>78</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I95" t="s">
+        <v>79</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I96" t="s">
+        <v>80</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I97" t="s">
+        <v>81</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I98" t="s">
+        <v>82</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I99" t="s">
+        <v>83</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I100" t="s">
+        <v>84</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I101" t="s">
+        <v>85</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H103" t="s">
+        <v>32</v>
+      </c>
+      <c r="I103" t="s">
+        <v>69</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I104" t="s">
+        <v>6</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K104" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I105" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I106" t="s">
+        <v>27</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I107" t="s">
+        <v>56</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I108" t="s">
+        <v>57</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I109" t="s">
+        <v>46</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K109" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I110" t="s">
+        <v>62</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K110" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I111" t="s">
+        <v>63</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I112" t="s">
+        <v>95</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I113" t="s">
+        <v>89</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I114" t="s">
+        <v>90</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I115" t="s">
+        <v>73</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I116" t="s">
+        <v>75</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I117" t="s">
+        <v>76</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I118" t="s">
+        <v>77</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I119" t="s">
+        <v>78</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I120" t="s">
+        <v>79</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I121" t="s">
+        <v>80</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I122" t="s">
+        <v>81</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I123" t="s">
+        <v>82</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I124" t="s">
+        <v>83</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I125" t="s">
+        <v>84</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I126" t="s">
+        <v>85</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H128" t="s">
+        <v>37</v>
+      </c>
+      <c r="I128" t="s">
+        <v>69</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="129" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I129" t="s">
+        <v>6</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K129" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I130" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K130" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="131" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I131" t="s">
+        <v>27</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K131" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I132" t="s">
+        <v>56</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K132" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="133" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I133" t="s">
+        <v>57</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K133" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I134" t="s">
+        <v>46</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K134" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="135" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I135" t="s">
+        <v>62</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K135" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="136" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I136" t="s">
+        <v>63</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K136" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="137" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I137" t="s">
+        <v>95</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I138" t="s">
+        <v>89</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K138" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="139" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I139" t="s">
+        <v>90</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K139" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="140" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I140" t="s">
+        <v>70</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I141" t="s">
+        <v>71</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I142" t="s">
+        <v>72</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I143" t="s">
+        <v>76</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I144" t="s">
+        <v>77</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I145" t="s">
+        <v>81</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I146" t="s">
+        <v>82</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I147" t="s">
+        <v>83</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I148" t="s">
+        <v>84</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I149" t="s">
+        <v>85</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H151" t="s">
+        <v>44</v>
+      </c>
+      <c r="I151" t="s">
+        <v>69</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K151" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I152" t="s">
+        <v>6</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K152" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I153" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K153" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="154" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I154" t="s">
+        <v>27</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K154" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="155" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I155" t="s">
+        <v>56</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K155" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I156" t="s">
+        <v>57</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K156" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="157" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I157" t="s">
+        <v>62</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K157" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="158" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I158" t="s">
+        <v>63</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K158" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="159" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I159" t="s">
+        <v>95</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I160" t="s">
+        <v>89</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I161" t="s">
+        <v>90</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I162" t="s">
+        <v>70</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I163" t="s">
+        <v>71</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I164" t="s">
+        <v>72</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I165" t="s">
+        <v>73</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I166" t="s">
+        <v>74</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I167" t="s">
+        <v>75</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I168" t="s">
+        <v>77</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I169" t="s">
+        <v>79</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I170" t="s">
+        <v>80</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I171" t="s">
+        <v>82</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I172" t="s">
+        <v>84</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I173" t="s">
+        <v>85</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H175" t="s">
+        <v>50</v>
+      </c>
+      <c r="I175" t="s">
+        <v>69</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K175" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="176" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I176" t="s">
+        <v>6</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K176" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I177" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K177" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="178" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I178" t="s">
+        <v>27</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K178" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="179" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I179" t="s">
+        <v>56</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K179" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I180" t="s">
+        <v>57</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K180" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="181" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I181" t="s">
+        <v>46</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K181" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="182" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I182" t="s">
+        <v>62</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K182" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="183" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I183" t="s">
+        <v>63</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I184" t="s">
+        <v>95</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I185" t="s">
+        <v>89</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I186" t="s">
+        <v>90</v>
+      </c>
+      <c r="J186" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I187" t="s">
+        <v>70</v>
+      </c>
+      <c r="J187" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I188" t="s">
+        <v>71</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I189" t="s">
+        <v>72</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I190" t="s">
+        <v>73</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I191" t="s">
+        <v>74</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I192" t="s">
+        <v>75</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I193" t="s">
+        <v>77</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I194" t="s">
+        <v>78</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I195" t="s">
+        <v>80</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I196" t="s">
+        <v>83</v>
+      </c>
+      <c r="J196" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I197" t="s">
+        <v>85</v>
+      </c>
+      <c r="J197" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H199" t="s">
+        <v>55</v>
+      </c>
+      <c r="I199" t="s">
+        <v>69</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K199" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="200" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I200" t="s">
+        <v>6</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K200" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I201" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K201" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="202" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I202" t="s">
+        <v>27</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K202" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="203" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I203" t="s">
+        <v>46</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K203" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="204" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I204" t="s">
+        <v>62</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K204" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="205" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I205" t="s">
+        <v>63</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K205" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="206" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I206" t="s">
+        <v>95</v>
+      </c>
+      <c r="J206" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K206" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="207" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I207" t="s">
+        <v>89</v>
+      </c>
+      <c r="J207" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I208" t="s">
+        <v>90</v>
+      </c>
+      <c r="J208" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I209" t="s">
+        <v>70</v>
+      </c>
+      <c r="J209" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I210" t="s">
+        <v>71</v>
+      </c>
+      <c r="J210" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I211" t="s">
+        <v>72</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I212" t="s">
+        <v>73</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I213" t="s">
+        <v>74</v>
+      </c>
+      <c r="J213" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I214" t="s">
+        <v>75</v>
+      </c>
+      <c r="J214" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I215" t="s">
+        <v>76</v>
+      </c>
+      <c r="J215" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I216" t="s">
+        <v>78</v>
+      </c>
+      <c r="J216" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I217" t="s">
+        <v>79</v>
+      </c>
+      <c r="J217" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I218" t="s">
+        <v>81</v>
+      </c>
+      <c r="J218" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I219" t="s">
+        <v>83</v>
+      </c>
+      <c r="J219" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I220" t="s">
+        <v>84</v>
+      </c>
+      <c r="J220" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H222" t="s">
+        <v>61</v>
+      </c>
+      <c r="I222" t="s">
+        <v>69</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K222" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="223" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I223" t="s">
+        <v>6</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K223" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="224" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I224" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K224" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="225" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I225" t="s">
+        <v>27</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K225" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="226" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I226" t="s">
+        <v>56</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K226" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="227" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I227" t="s">
+        <v>57</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K227" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="228" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I228" t="s">
+        <v>46</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I229" t="s">
+        <v>95</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I230" t="s">
+        <v>89</v>
+      </c>
+      <c r="J230" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I231" t="s">
+        <v>90</v>
+      </c>
+      <c r="J231" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I232" t="s">
+        <v>70</v>
+      </c>
+      <c r="J232" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I233" t="s">
+        <v>71</v>
+      </c>
+      <c r="J233" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I234" t="s">
+        <v>72</v>
+      </c>
+      <c r="J234" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I235" t="s">
+        <v>73</v>
+      </c>
+      <c r="J235" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I236" t="s">
+        <v>74</v>
+      </c>
+      <c r="J236" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I237" t="s">
+        <v>75</v>
+      </c>
+      <c r="J237" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I238" t="s">
+        <v>76</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I239" t="s">
+        <v>77</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I240" t="s">
+        <v>78</v>
+      </c>
+      <c r="J240" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I241" t="s">
+        <v>79</v>
+      </c>
+      <c r="J241" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I242" t="s">
+        <v>80</v>
+      </c>
+      <c r="J242" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I243" t="s">
+        <v>81</v>
+      </c>
+      <c r="J243" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I244" t="s">
+        <v>82</v>
+      </c>
+      <c r="J244" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tablas.xlsx
+++ b/Tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clases\Redes\Parcial-Redes-Periodo-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F33920-91A6-4929-ACDD-63716E0F6FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9F19E8-3211-4F6F-8DC8-1988EDE82EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17520" yWindow="0" windowWidth="5616" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16416" yWindow="0" windowWidth="6720" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="2" r:id="rId1"/>
@@ -523,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -548,6 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1437,13 +1438,13 @@
           </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> Cambiar nombres a los routers	</a:t>
+            <a:t> Cambiar nombres a los routers	ya	</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t>2- configuracion de interfaces /24	</a:t>
+            <a:t>2- configuracion de interfaces /24	ya</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1478,7 +1479,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>configuracion de interfaces /30	</a:t>
+            <a:t>configuracion de interfaces /30	ya</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1509,7 +1510,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>4- DHCP	</a:t>
+            <a:t>4- DHCP	ya</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2113,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="G34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2353,7 +2354,7 @@
       <c r="J11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>

--- a/Tablas.xlsx
+++ b/Tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clases\Redes\Parcial-Redes-Periodo-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9F19E8-3211-4F6F-8DC8-1988EDE82EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422DB13C-E1AB-4627-A273-46DB71416396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16416" yWindow="0" windowWidth="6720" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16536" yWindow="0" windowWidth="6600" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="127">
   <si>
     <t>Dispositivo</t>
   </si>
@@ -2114,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="G222" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J250" sqref="J250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4660,18 +4660,17 @@
     </row>
     <row r="193" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H193" s="7"/>
-      <c r="I193" s="7" t="s">
-        <v>75</v>
+      <c r="I193" t="s">
+        <v>74</v>
       </c>
       <c r="J193" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K193" s="7"/>
     </row>
     <row r="194" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H194" s="7"/>
       <c r="I194" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J194" s="4" t="s">
         <v>15</v>
@@ -4681,7 +4680,7 @@
     <row r="195" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H195" s="7"/>
       <c r="I195" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J195" s="4" t="s">
         <v>15</v>
@@ -4691,7 +4690,7 @@
     <row r="196" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H196" s="7"/>
       <c r="I196" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J196" s="4" t="s">
         <v>15</v>
@@ -4701,7 +4700,7 @@
     <row r="197" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H197" s="7"/>
       <c r="I197" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J197" s="4" t="s">
         <v>15</v>
@@ -4710,8 +4709,12 @@
     </row>
     <row r="198" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H198" s="7"/>
-      <c r="I198" s="7"/>
-      <c r="J198" s="7"/>
+      <c r="I198" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J198" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="K198" s="7"/>
     </row>
     <row r="199" spans="8:11" x14ac:dyDescent="0.3">

--- a/Tablas.xlsx
+++ b/Tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clases\Redes\Parcial-Redes-Periodo-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422DB13C-E1AB-4627-A273-46DB71416396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211C0F72-C998-4F1B-BB79-1B8851E3745E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16536" yWindow="0" windowWidth="6600" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15564" yWindow="0" windowWidth="7572" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico1" sheetId="2" r:id="rId1"/>
@@ -1541,7 +1541,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>5- enrutamiento a al R1	</a:t>
+            <a:t>5- enrutamiento a al R1	ya</a:t>
           </a:r>
           <a:endParaRPr lang="es-ES">
             <a:effectLst/>
@@ -1579,7 +1579,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>enrutamiento a al R2	</a:t>
+            <a:t>enrutamiento a al R2	ya</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1610,7 +1610,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>7- enrutamiento a al R3	</a:t>
+            <a:t>7- enrutamiento a al R3	ya</a:t>
           </a:r>
           <a:endParaRPr lang="es-ES">
             <a:effectLst/>
@@ -1650,7 +1650,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>enrutamiento a al R4	</a:t>
+            <a:t>enrutamiento a al R4	ya</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1681,7 +1681,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>9- enrutamiento a al R5	</a:t>
+            <a:t>9- enrutamiento a al R5	ya</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1712,7 +1712,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>10- enrutamiento a al R6	</a:t>
+            <a:t>10- enrutamiento a al R6	ya</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1743,7 +1743,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>11- enrutamiento a al R7	</a:t>
+            <a:t>11- enrutamiento a al R7	ya</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1774,7 +1774,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>12- enrutamiento a al R8	</a:t>
+            <a:t>12- enrutamiento a al R8	ya</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1805,7 +1805,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>13- enrutamiento a al R9	</a:t>
+            <a:t>13- enrutamiento a al R9	ya</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1836,7 +1836,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>14- enrutamiento a al R10	</a:t>
+            <a:t>14- enrutamiento a al R10	ya</a:t>
           </a:r>
           <a:endParaRPr lang="es-ES">
             <a:effectLst/>
@@ -2115,7 +2115,7 @@
   <dimension ref="B2:Q244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G222" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J250" sqref="J250"/>
+      <selection activeCell="Q240" sqref="Q240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
